--- a/results/throughput/throughput.xlsx
+++ b/results/throughput/throughput.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Projects\boosted-pir\results\latency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Projects\boosted-pir\results\throughput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF9B3EC-4020-41E7-8037-AF68F6F6C542}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CF507-D8DC-40C2-B8F5-4F4A3D42C79C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Hint</t>
   </si>
@@ -74,9 +74,6 @@
     <t>55 (42)</t>
   </si>
   <si>
-    <t>Load (Q/1BU/S)</t>
-  </si>
-  <si>
     <t>Servers per 1B users</t>
   </si>
   <si>
@@ -93,6 +90,24 @@
   </si>
   <si>
     <t>DPF/Checklist (online)</t>
+  </si>
+  <si>
+    <t>TCP NEW CONNECTION EACH TIME</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>Q/1BU/S</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>SHARED CONNECTION</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
   </si>
 </sst>
 </file>
@@ -100,9 +115,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +162,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +202,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,28 +267,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="9">
+    <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="8" builtinId="48"/>
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -553,219 +615,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859AD521-6503-4B83-93B3-5B74E0D4F27A}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.69140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>114.07516895398592</v>
+      </c>
+      <c r="C5" s="13">
+        <f>B5/(7*86400)*1000000000</f>
+        <v>188616.35078370688</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7500</v>
+      </c>
+      <c r="E5" s="12">
+        <f>D5</f>
+        <v>7500</v>
+      </c>
+      <c r="F5" s="12">
+        <f>D5</f>
+        <v>7500</v>
+      </c>
+      <c r="H5" s="2">
+        <v>25200</v>
+      </c>
+      <c r="I5" s="12">
+        <f>H5</f>
+        <v>25200</v>
+      </c>
+      <c r="J5" s="12">
+        <f>H5</f>
+        <v>25200</v>
+      </c>
+      <c r="L5" s="2">
+        <v>730</v>
+      </c>
+      <c r="M5" s="12">
+        <f>L5</f>
+        <v>730</v>
+      </c>
+      <c r="N5" s="12">
+        <f>L5</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.76607239498873636</v>
+      </c>
+      <c r="C6" s="13">
+        <f>B6/(7*86400)*1000000000</f>
+        <v>1266.654092243281</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="D7" s="12">
+        <f>D5</f>
+        <v>7500</v>
+      </c>
+      <c r="E7" s="12">
+        <f>D7</f>
+        <v>7500</v>
+      </c>
+      <c r="H7" s="12">
+        <f>H5</f>
+        <v>25200</v>
+      </c>
+      <c r="I7" s="12">
+        <f>H7</f>
+        <v>25200</v>
+      </c>
+      <c r="L7" s="12">
+        <f>L5</f>
+        <v>730</v>
+      </c>
+      <c r="M7" s="12">
+        <f>L7</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>248.9565007989504</v>
+      </c>
+      <c r="C8" s="13">
+        <f>B8/(7*86400)*1000000000</f>
+        <v>411634.42592419049</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8600</v>
+      </c>
+      <c r="E8" s="2">
+        <v>228</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7300</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44500</v>
+      </c>
+      <c r="I8" s="2">
+        <v>232</v>
+      </c>
+      <c r="J8" s="2">
+        <v>19400</v>
+      </c>
+      <c r="L8" s="2">
+        <v>835</v>
+      </c>
+      <c r="M8" s="2">
+        <v>180</v>
+      </c>
+      <c r="N8" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <f>$C$5/D5</f>
+        <v>25.148846771160915</v>
+      </c>
+      <c r="E10" s="6">
+        <f>$C$5/E5</f>
+        <v>25.148846771160915</v>
+      </c>
+      <c r="F10" s="6">
+        <f>$C5/F5+$C6/F6</f>
+        <v>447.36687751892123</v>
+      </c>
+      <c r="H10" s="6">
+        <f>$C$5/H5</f>
+        <v>7.4847758247502725</v>
+      </c>
+      <c r="I10" s="6">
+        <f>$C$5/I5</f>
+        <v>7.4847758247502725</v>
+      </c>
+      <c r="J10" s="6">
+        <f>$C5/J5+$C6/J6</f>
+        <v>403.31417965077554</v>
+      </c>
+      <c r="L10" s="6">
+        <f>$C$5/L5</f>
+        <v>258.37856271740668</v>
+      </c>
+      <c r="M10" s="6">
+        <f>$C$5/M5</f>
+        <v>258.37856271740668</v>
+      </c>
+      <c r="N10" s="6">
+        <f>$C5/N5+$C6/N6</f>
+        <v>666.97665698943274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6">
+        <f>$C8/D8</f>
+        <v>47.864468130719828</v>
+      </c>
+      <c r="E11" s="6">
+        <f>2*$C8/E8</f>
+        <v>3610.8282975806183</v>
+      </c>
+      <c r="F11" s="6">
+        <f>2*$C8/F8</f>
+        <v>112.77655504772342</v>
+      </c>
+      <c r="H11" s="6">
+        <f>$C8/H8</f>
+        <v>9.2502118185211355</v>
+      </c>
+      <c r="I11" s="6">
+        <f>2*$C8/I8</f>
+        <v>3548.5726372775043</v>
+      </c>
+      <c r="J11" s="6">
+        <f>2*$C8/J8</f>
+        <v>42.436538755071183</v>
+      </c>
+      <c r="L11" s="6">
+        <f>$C8/L8</f>
+        <v>492.97536038825211</v>
+      </c>
+      <c r="M11" s="6">
+        <f>2*$C8/M8</f>
+        <v>4573.7158436021164</v>
+      </c>
+      <c r="N11" s="6">
+        <f>2*$C8/N8</f>
+        <v>1042.1124706941532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <f>D10+D11</f>
+        <v>73.013314901880747</v>
+      </c>
+      <c r="E12" s="6">
+        <f>E10+E11</f>
+        <v>3635.9771443517793</v>
+      </c>
+      <c r="F12" s="6">
+        <f>F10+F11</f>
+        <v>560.14343256664461</v>
+      </c>
+      <c r="H12" s="6">
+        <f>H10+H11</f>
+        <v>16.73498764327141</v>
+      </c>
+      <c r="I12" s="6">
+        <f>I10+I11</f>
+        <v>3556.0574131022545</v>
+      </c>
+      <c r="J12" s="6">
+        <f>J10+J11</f>
+        <v>445.75071840584673</v>
+      </c>
+      <c r="L12" s="6">
+        <f>L10+L11</f>
+        <v>751.35392310565885</v>
+      </c>
+      <c r="M12" s="6">
+        <f>M10+M11</f>
+        <v>4832.0944063195229</v>
+      </c>
+      <c r="N12" s="6">
+        <f>N10+N11</f>
+        <v>1709.089127683586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7500</v>
-      </c>
-      <c r="E3" s="8">
-        <v>114.07516895398592</v>
-      </c>
-      <c r="F3" s="9">
-        <f>E3/(7*86400)*1000000000</f>
-        <v>188616.35078370688</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.76607239498873636</v>
-      </c>
-      <c r="F4" s="9">
-        <f>E4/(7*86400)*1000000000</f>
-        <v>1266.654092243281</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <f>$B3+B4</f>
-        <v>7500</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7500</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8600</v>
-      </c>
-      <c r="C6" s="2">
-        <v>228</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7300</v>
-      </c>
-      <c r="E6" s="8">
-        <v>248.9565007989504</v>
-      </c>
-      <c r="F6" s="9">
-        <f>E6/(7*86400)*1000000000</f>
-        <v>411634.42592419049</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7">
-        <f>$F$3/B5</f>
-        <v>25.148846771160915</v>
-      </c>
-      <c r="C8" s="7">
-        <f>B8</f>
-        <v>25.148846771160915</v>
-      </c>
-      <c r="D8" s="7">
-        <f>C8+F4/D4</f>
-        <v>447.36687751892123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7">
-        <f>$F6/B6</f>
-        <v>47.864468130719828</v>
-      </c>
-      <c r="C9" s="7">
-        <f>2*$F6/C6</f>
-        <v>3610.8282975806183</v>
-      </c>
-      <c r="D9" s="7">
-        <f>2*$F6/D6</f>
-        <v>112.77655504772342</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
-        <f>B8+B9</f>
-        <v>73.013314901880747</v>
-      </c>
-      <c r="C10" s="7">
-        <f>C8+C9</f>
-        <v>3635.9771443517793</v>
-      </c>
-      <c r="D10" s="7">
-        <f>D8+D9</f>
-        <v>560.14343256664461</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="E13" s="5">
+        <f>E12/D12</f>
+        <v>49.798822985067893</v>
+      </c>
+      <c r="F13" s="5">
+        <f>F12/D12</f>
+        <v>7.6717984016942076</v>
+      </c>
+      <c r="I13" s="5">
+        <f>I12/H12</f>
+        <v>212.49238355619752</v>
+      </c>
+      <c r="J13" s="5">
+        <f>J12/H12</f>
+        <v>26.635855843315696</v>
+      </c>
+      <c r="M13" s="5">
+        <f>M12/L12</f>
+        <v>6.4311827724895121</v>
+      </c>
+      <c r="N13" s="5">
+        <f>N12/L12</f>
+        <v>2.2746791826403308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6">
-        <f>C10/$B10</f>
-        <v>49.798822985067893</v>
-      </c>
-      <c r="D11" s="6">
-        <f>D10/$B10</f>
-        <v>7.6717984016942076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <f>C9/D9</f>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <f>E11/F11</f>
         <v>32.017543859649123</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>69</v>
-      </c>
-      <c r="D18" s="2">
-        <v>63</v>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <f>I11/J11</f>
+        <v>83.620689655172413</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <f>M11/N11</f>
+        <v>4.3888888888888884</v>
       </c>
     </row>
   </sheetData>

--- a/results/throughput/throughput.xlsx
+++ b/results/throughput/throughput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Projects\boosted-pir\results\throughput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CF507-D8DC-40C2-B8F5-4F4A3D42C79C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE79500-7030-4244-9DB4-302A0F847089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Hint</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Servers per 1B users</t>
   </si>
   <si>
-    <t>Servers per 1B users (offline)</t>
-  </si>
-  <si>
-    <t>Servers per 1B users (online)</t>
-  </si>
-  <si>
     <t>Throughput (QPS)</t>
   </si>
   <si>
@@ -101,23 +95,73 @@
     <t>Q/1BU/S</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>SHARED CONNECTION</t>
   </si>
   <si>
     <t>HTTPS</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Bandwidth cost ($/GB)</t>
+  </si>
+  <si>
+    <t>Compute Cost ($/server)</t>
+  </si>
+  <si>
+    <t>GCP costs</t>
+  </si>
+  <si>
+    <t>$-cost/hour</t>
+  </si>
+  <si>
+    <t>Bandwidth (B/User/Week)</t>
+  </si>
+  <si>
+    <t>Bandwidth per 1B users (GB/H)</t>
+  </si>
+  <si>
+    <t>core-msec/query</t>
+  </si>
+  <si>
+    <t>bytes/query</t>
+  </si>
+  <si>
+    <t>compute cost $/query</t>
+  </si>
+  <si>
+    <t>bw cost $/query</t>
+  </si>
+  <si>
+    <t>bw cost $/GB</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>compute cost $/core/hour (nominal)</t>
+  </si>
+  <si>
+    <t>compute cost $/core/hour (at 50% utilization)</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +220,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +279,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -266,8 +341,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -277,8 +367,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -290,16 +382,29 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4"/>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="10"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
     <cellStyle name="60% - Accent5" xfId="8" builtinId="48"/>
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,442 +720,769 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859AD521-6503-4B83-93B3-5B74E0D4F27A}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.765625" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" customWidth="1"/>
+    <col min="5" max="6" width="11.69140625" customWidth="1"/>
+    <col min="7" max="7" width="10.15234375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="1:26" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="J1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="N1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="R1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="J3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="N3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="R3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>69</v>
+      </c>
+      <c r="L4" s="2">
+        <v>63</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="J5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="R5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>114.07516895398592</v>
+      </c>
+      <c r="C6" s="12">
+        <f>B6/(7*86400)*1000000000</f>
+        <v>188616.35078370688</v>
+      </c>
+      <c r="E6" s="19">
+        <v>766124.65189268754</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1295000</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1295000</v>
+      </c>
+      <c r="H6" s="20">
+        <f>H8-F6</f>
+        <v>1308461</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7500</v>
+      </c>
+      <c r="K6" s="11">
+        <f>J6</f>
+        <v>7500</v>
+      </c>
+      <c r="L6" s="11">
+        <f>J6</f>
+        <v>7500</v>
+      </c>
+      <c r="N6" s="2">
+        <v>25200</v>
+      </c>
+      <c r="O6" s="11">
+        <f>N6</f>
+        <v>25200</v>
+      </c>
+      <c r="P6" s="11">
+        <f>N6</f>
+        <v>25200</v>
+      </c>
+      <c r="R6" s="2">
+        <v>730</v>
+      </c>
+      <c r="S6" s="11">
+        <f>R6</f>
+        <v>730</v>
+      </c>
+      <c r="T6" s="11">
+        <f>R6</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.76607239498873636</v>
+      </c>
+      <c r="C7" s="12">
+        <f>B7/(7*86400)*1000000000</f>
+        <v>1266.654092243281</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="20">
+        <f>H8-H6</f>
+        <v>1295000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="T7" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <f>B6</f>
+        <v>114.07516895398592</v>
+      </c>
+      <c r="C8" s="12">
+        <f>C6</f>
+        <v>188616.35078370688</v>
+      </c>
+      <c r="E8" s="20">
+        <f>E6+E7</f>
+        <v>766124.65189268754</v>
+      </c>
+      <c r="F8" s="20">
+        <f>F6+F7</f>
+        <v>1295000</v>
+      </c>
+      <c r="G8" s="20">
+        <f>G6+G7</f>
+        <v>1295000</v>
+      </c>
+      <c r="H8" s="19">
+        <v>2603461</v>
+      </c>
+      <c r="J8" s="11">
+        <f>J6</f>
+        <v>7500</v>
+      </c>
+      <c r="K8" s="11">
+        <f>J8</f>
+        <v>7500</v>
+      </c>
+      <c r="N8" s="11">
+        <f>N6</f>
+        <v>25200</v>
+      </c>
+      <c r="O8" s="11">
+        <f>N8</f>
+        <v>25200</v>
+      </c>
+      <c r="R8" s="11">
+        <f>R6</f>
+        <v>730</v>
+      </c>
+      <c r="S8" s="11">
+        <f>R8</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>248.9565007989504</v>
+      </c>
+      <c r="C9" s="12">
+        <f>B9/(7*86400)*1000000000</f>
+        <v>411634.42592419049</v>
+      </c>
+      <c r="E9" s="19">
+        <v>76375.201839780435</v>
+      </c>
+      <c r="F9" s="19">
+        <v>235769</v>
+      </c>
+      <c r="G9" s="19">
+        <v>377692</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1679230</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8600</v>
+      </c>
+      <c r="K9" s="2">
+        <v>228</v>
+      </c>
+      <c r="L9" s="2">
+        <v>7300</v>
+      </c>
+      <c r="N9" s="2">
+        <v>44500</v>
+      </c>
+      <c r="O9" s="2">
+        <v>232</v>
+      </c>
+      <c r="P9" s="2">
+        <v>19400</v>
+      </c>
+      <c r="R9" s="2">
+        <v>835</v>
+      </c>
+      <c r="S9" s="2">
+        <v>180</v>
+      </c>
+      <c r="T9" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13">
+        <f>E8/24/7</f>
+        <v>4560.2657850755213</v>
+      </c>
+      <c r="F11" s="13">
+        <f>F8/24/7</f>
+        <v>7708.3333333333339</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" ref="G11:H11" si="0">G8/24/7</f>
+        <v>7708.3333333333339</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>15496.791666666668</v>
+      </c>
+      <c r="J11" s="6">
+        <f>$C$6/J6</f>
+        <v>25.148846771160915</v>
+      </c>
+      <c r="K11" s="6">
+        <f>$C$6/K6</f>
+        <v>25.148846771160915</v>
+      </c>
+      <c r="L11" s="6">
+        <f>$C6/L6+$C7/L7</f>
+        <v>447.36687751892123</v>
+      </c>
+      <c r="N11" s="6">
+        <f>$C$6/N6</f>
+        <v>7.4847758247502725</v>
+      </c>
+      <c r="O11" s="6">
+        <f>$C$6/O6</f>
+        <v>7.4847758247502725</v>
+      </c>
+      <c r="P11" s="6">
+        <f>$C6/P6+$C7/P7</f>
+        <v>403.31417965077554</v>
+      </c>
+      <c r="R11" s="6">
+        <f>$C$6/R6</f>
+        <v>258.37856271740668</v>
+      </c>
+      <c r="S11" s="6">
+        <f>$C$6/S6</f>
+        <v>258.37856271740668</v>
+      </c>
+      <c r="T11" s="6">
+        <f>$C6/T6+$C7/T7</f>
+        <v>666.97665698943274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="13">
+        <f>E9/24/7</f>
+        <v>454.61429666535975</v>
+      </c>
+      <c r="F12" s="13">
+        <f>F9/24/7</f>
+        <v>1403.3869047619048</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" ref="G12:H12" si="1">G9/24/7</f>
+        <v>2248.1666666666665</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="1"/>
+        <v>9995.4166666666679</v>
+      </c>
+      <c r="J12" s="6">
+        <f>$C9/J9</f>
+        <v>47.864468130719828</v>
+      </c>
+      <c r="K12" s="6">
+        <f>2*$C9/K9</f>
+        <v>3610.8282975806183</v>
+      </c>
+      <c r="L12" s="6">
+        <f>2*$C9/L9</f>
+        <v>112.77655504772342</v>
+      </c>
+      <c r="N12" s="6">
+        <f>$C9/N9</f>
+        <v>9.2502118185211355</v>
+      </c>
+      <c r="O12" s="6">
+        <f>2*$C9/O9</f>
+        <v>3548.5726372775043</v>
+      </c>
+      <c r="P12" s="6">
+        <f>2*$C9/P9</f>
+        <v>42.436538755071183</v>
+      </c>
+      <c r="R12" s="6">
+        <f>$C9/R9</f>
+        <v>492.97536038825211</v>
+      </c>
+      <c r="S12" s="6">
+        <f>2*$C9/S9</f>
+        <v>4573.7158436021164</v>
+      </c>
+      <c r="T12" s="6">
+        <f>2*$C9/T9</f>
+        <v>1042.1124706941532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="E13" s="13">
+        <f>E11+E12</f>
+        <v>5014.880081740881</v>
+      </c>
+      <c r="F13" s="13">
+        <f>F11+F12</f>
+        <v>9111.7202380952385</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" ref="G13:H13" si="2">G11+G12</f>
+        <v>9956.5</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="2"/>
+        <v>25492.208333333336</v>
+      </c>
+      <c r="J13" s="6">
+        <f>J11+J12</f>
+        <v>73.013314901880747</v>
+      </c>
+      <c r="K13" s="6">
+        <f>K11+K12</f>
+        <v>3635.9771443517793</v>
+      </c>
+      <c r="L13" s="6">
+        <f>L11+L12</f>
+        <v>560.14343256664461</v>
+      </c>
+      <c r="N13" s="6">
+        <f>N11+N12</f>
+        <v>16.73498764327141</v>
+      </c>
+      <c r="O13" s="6">
+        <f>O11+O12</f>
+        <v>3556.0574131022545</v>
+      </c>
+      <c r="P13" s="6">
+        <f>P11+P12</f>
+        <v>445.75071840584673</v>
+      </c>
+      <c r="R13" s="6">
+        <f>R11+R12</f>
+        <v>751.35392310565885</v>
+      </c>
+      <c r="S13" s="6">
+        <f>S11+S12</f>
+        <v>4832.0944063195229</v>
+      </c>
+      <c r="T13" s="6">
+        <f>T11+T12</f>
+        <v>1709.089127683586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="5">
+        <f>K13/J13</f>
+        <v>49.798822985067893</v>
+      </c>
+      <c r="L14" s="5">
+        <f>L13/J13</f>
+        <v>7.6717984016942076</v>
+      </c>
+      <c r="O14" s="5">
+        <f>O13/N13</f>
+        <v>212.49238355619752</v>
+      </c>
+      <c r="P14" s="5">
+        <f>P13/N13</f>
+        <v>26.635855843315696</v>
+      </c>
+      <c r="S14" s="5">
+        <f>S13/R13</f>
+        <v>6.4311827724895121</v>
+      </c>
+      <c r="T14" s="5">
+        <f>T13/R13</f>
+        <v>2.2746791826403308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <f>K12/L12</f>
+        <v>32.017543859649123</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <f>O12/P12</f>
+        <v>83.620689655172413</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
+        <f>S12/T12</f>
+        <v>4.3888888888888884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="22">
+        <f>E13*$B$26</f>
+        <v>401.1904065392705</v>
+      </c>
+      <c r="F16" s="22">
+        <f>F13*$B$26</f>
+        <v>728.93761904761914</v>
+      </c>
+      <c r="G16" s="22">
+        <f>G13*$B$26</f>
+        <v>796.52</v>
+      </c>
+      <c r="H16" s="22">
+        <f>H13*$B$26</f>
+        <v>2039.376666666667</v>
+      </c>
+      <c r="J16" s="21">
+        <f>J13*$B$27</f>
+        <v>9.4917309372444976</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" ref="K16:L16" si="3">K13*$B$27</f>
+        <v>472.67702876573134</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="3"/>
+        <v>72.818646233663799</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21">
+        <f>N13*$B$27</f>
+        <v>2.1755483936252835</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" ref="O16:P16" si="4">O13*$B$27</f>
+        <v>462.2874637032931</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="4"/>
+        <v>57.947593392760076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B26" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <f>B30*2</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>69</v>
-      </c>
-      <c r="F4" s="2">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7">
-        <v>114.07516895398592</v>
-      </c>
-      <c r="C5" s="13">
-        <f>B5/(7*86400)*1000000000</f>
-        <v>188616.35078370688</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7500</v>
-      </c>
-      <c r="E5" s="12">
-        <f>D5</f>
-        <v>7500</v>
-      </c>
-      <c r="F5" s="12">
-        <f>D5</f>
-        <v>7500</v>
-      </c>
-      <c r="H5" s="2">
-        <v>25200</v>
-      </c>
-      <c r="I5" s="12">
-        <f>H5</f>
-        <v>25200</v>
-      </c>
-      <c r="J5" s="12">
-        <f>H5</f>
-        <v>25200</v>
-      </c>
-      <c r="L5" s="2">
-        <v>730</v>
-      </c>
-      <c r="M5" s="12">
-        <f>L5</f>
-        <v>730</v>
-      </c>
-      <c r="N5" s="12">
-        <f>L5</f>
-        <v>730</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.76607239498873636</v>
-      </c>
-      <c r="C6" s="13">
-        <f>B6/(7*86400)*1000000000</f>
-        <v>1266.654092243281</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="12">
-        <f>D5</f>
-        <v>7500</v>
-      </c>
-      <c r="E7" s="12">
-        <f>D7</f>
-        <v>7500</v>
-      </c>
-      <c r="H7" s="12">
-        <f>H5</f>
-        <v>25200</v>
-      </c>
-      <c r="I7" s="12">
-        <f>H7</f>
-        <v>25200</v>
-      </c>
-      <c r="L7" s="12">
-        <f>L5</f>
-        <v>730</v>
-      </c>
-      <c r="M7" s="12">
-        <f>L7</f>
-        <v>730</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>248.9565007989504</v>
-      </c>
-      <c r="C8" s="13">
-        <f>B8/(7*86400)*1000000000</f>
-        <v>411634.42592419049</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8600</v>
-      </c>
-      <c r="E8" s="2">
-        <v>228</v>
-      </c>
-      <c r="F8" s="2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>1653</v>
+      </c>
+      <c r="D36">
         <v>7300</v>
       </c>
-      <c r="H8" s="2">
-        <v>44500</v>
-      </c>
-      <c r="I8" s="2">
-        <v>232</v>
-      </c>
-      <c r="J8" s="2">
-        <v>19400</v>
-      </c>
-      <c r="L8" s="2">
-        <v>835</v>
-      </c>
-      <c r="M8" s="2">
-        <v>180</v>
-      </c>
-      <c r="N8" s="2">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6">
-        <f>$C$5/D5</f>
-        <v>25.148846771160915</v>
-      </c>
-      <c r="E10" s="6">
-        <f>$C$5/E5</f>
-        <v>25.148846771160915</v>
-      </c>
-      <c r="F10" s="6">
-        <f>$C5/F5+$C6/F6</f>
-        <v>447.36687751892123</v>
-      </c>
-      <c r="H10" s="6">
-        <f>$C$5/H5</f>
-        <v>7.4847758247502725</v>
-      </c>
-      <c r="I10" s="6">
-        <f>$C$5/I5</f>
-        <v>7.4847758247502725</v>
-      </c>
-      <c r="J10" s="6">
-        <f>$C5/J5+$C6/J6</f>
-        <v>403.31417965077554</v>
-      </c>
-      <c r="L10" s="6">
-        <f>$C$5/L5</f>
-        <v>258.37856271740668</v>
-      </c>
-      <c r="M10" s="6">
-        <f>$C$5/M5</f>
-        <v>258.37856271740668</v>
-      </c>
-      <c r="N10" s="6">
-        <f>$C5/N5+$C6/N6</f>
-        <v>666.97665698943274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6">
-        <f>$C8/D8</f>
-        <v>47.864468130719828</v>
-      </c>
-      <c r="E11" s="6">
-        <f>2*$C8/E8</f>
-        <v>3610.8282975806183</v>
-      </c>
-      <c r="F11" s="6">
-        <f>2*$C8/F8</f>
-        <v>112.77655504772342</v>
-      </c>
-      <c r="H11" s="6">
-        <f>$C8/H8</f>
-        <v>9.2502118185211355</v>
-      </c>
-      <c r="I11" s="6">
-        <f>2*$C8/I8</f>
-        <v>3548.5726372775043</v>
-      </c>
-      <c r="J11" s="6">
-        <f>2*$C8/J8</f>
-        <v>42.436538755071183</v>
-      </c>
-      <c r="L11" s="6">
-        <f>$C8/L8</f>
-        <v>492.97536038825211</v>
-      </c>
-      <c r="M11" s="6">
-        <f>2*$C8/M8</f>
-        <v>4573.7158436021164</v>
-      </c>
-      <c r="N11" s="6">
-        <f>2*$C8/N8</f>
-        <v>1042.1124706941532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6">
-        <f>D10+D11</f>
-        <v>73.013314901880747</v>
-      </c>
-      <c r="E12" s="6">
-        <f>E10+E11</f>
-        <v>3635.9771443517793</v>
-      </c>
-      <c r="F12" s="6">
-        <f>F10+F11</f>
-        <v>560.14343256664461</v>
-      </c>
-      <c r="H12" s="6">
-        <f>H10+H11</f>
-        <v>16.73498764327141</v>
-      </c>
-      <c r="I12" s="6">
-        <f>I10+I11</f>
-        <v>3556.0574131022545</v>
-      </c>
-      <c r="J12" s="6">
-        <f>J10+J11</f>
-        <v>445.75071840584673</v>
-      </c>
-      <c r="L12" s="6">
-        <f>L10+L11</f>
-        <v>751.35392310565885</v>
-      </c>
-      <c r="M12" s="6">
-        <f>M10+M11</f>
-        <v>4832.0944063195229</v>
-      </c>
-      <c r="N12" s="6">
-        <f>N10+N11</f>
-        <v>1709.089127683586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5">
-        <f>E12/D12</f>
-        <v>49.798822985067893</v>
-      </c>
-      <c r="F13" s="5">
-        <f>F12/D12</f>
-        <v>7.6717984016942076</v>
-      </c>
-      <c r="I13" s="5">
-        <f>I12/H12</f>
-        <v>212.49238355619752</v>
-      </c>
-      <c r="J13" s="5">
-        <f>J12/H12</f>
-        <v>26.635855843315696</v>
-      </c>
-      <c r="M13" s="5">
-        <f>M12/L12</f>
-        <v>6.4311827724895121</v>
-      </c>
-      <c r="N13" s="5">
-        <f>N12/L12</f>
-        <v>2.2746791826403308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
-        <f>E11/F11</f>
-        <v>32.017543859649123</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
-        <f>I11/J11</f>
-        <v>83.620689655172413</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
-        <f>M11/N11</f>
-        <v>4.3888888888888884</v>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <f>$B31*C35/3600/1000</f>
+        <v>7.3333333333333334E-7</v>
+      </c>
+      <c r="D37">
+        <f>$B31*D35/3600/1000</f>
+        <v>8.6166666666666661E-9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f>$B32*C36/1000000000</f>
+        <v>1.3224E-7</v>
+      </c>
+      <c r="D38">
+        <f>$B32*D36/1000000000</f>
+        <v>5.8400000000000004E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <f>C37+C38</f>
+        <v>8.6557333333333336E-7</v>
+      </c>
+      <c r="D39">
+        <f>D37+D38</f>
+        <v>5.9261666666666676E-7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results/throughput/throughput.xlsx
+++ b/results/throughput/throughput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Projects\boosted-pir\results\throughput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE79500-7030-4244-9DB4-302A0F847089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E807F5-A962-4192-86A2-9F472D6B4F58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Hint</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Google</t>
+  </si>
+  <si>
+    <t>(for now taking into account that incoming traffic is free)</t>
   </si>
 </sst>
 </file>
@@ -159,9 +162,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +227,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,7 +381,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -392,10 +403,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
@@ -723,7 +735,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -905,8 +917,8 @@
         <v>1295000</v>
       </c>
       <c r="H6" s="20">
-        <f>H8-F6</f>
-        <v>1308461</v>
+        <f>F6</f>
+        <v>1295000</v>
       </c>
       <c r="J6" s="2">
         <v>7500</v>
@@ -957,7 +969,7 @@
       <c r="F7" s="13"/>
       <c r="H7" s="20">
         <f>H8-H6</f>
-        <v>1295000</v>
+        <v>1308461</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
@@ -1360,6 +1372,11 @@
       <c r="P16" s="21">
         <f t="shared" si="4"/>
         <v>57.947593392760076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="23" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">

--- a/results/throughput/throughput.xlsx
+++ b/results/throughput/throughput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Projects\boosted-pir\results\throughput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E807F5-A962-4192-86A2-9F472D6B4F58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA3F00-E718-496E-9DB7-ECD9C9935393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Hint</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>(for now taking into account that incoming traffic is free)</t>
+  </si>
+  <si>
+    <t>DPF/Checklist (total)</t>
   </si>
 </sst>
 </file>
@@ -732,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859AD521-6503-4B83-93B3-5B74E0D4F27A}">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1283,6 +1286,14 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="G14" s="5">
+        <f>G13/E13</f>
+        <v>1.9853914426092656</v>
+      </c>
+      <c r="H14" s="5">
+        <f>H13/E13</f>
+        <v>5.0833136421646783</v>
+      </c>
       <c r="K14" s="5">
         <f>K13/J13</f>
         <v>49.798822985067893</v>
@@ -1311,6 +1322,11 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="H15" s="5">
+        <f>G12/H12</f>
+        <v>0.22491975488765681</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5">
@@ -1328,172 +1344,194 @@
         <v>4.3888888888888884</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="H16" s="5">
+        <f>G13/H13</f>
+        <v>0.39057032132367236</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <f>K13/L13</f>
+        <v>6.4911537526938314</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
+        <f>O13/P13</f>
+        <v>7.9776818438339303</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="22">
-        <f>E13*$B$26</f>
+      <c r="E17" s="22">
+        <f>E13*$B$27</f>
         <v>401.1904065392705</v>
       </c>
-      <c r="F16" s="22">
-        <f>F13*$B$26</f>
+      <c r="F17" s="22">
+        <f>F13*$B$27</f>
         <v>728.93761904761914</v>
       </c>
-      <c r="G16" s="22">
-        <f>G13*$B$26</f>
+      <c r="G17" s="22">
+        <f>G13*$B$27</f>
         <v>796.52</v>
       </c>
-      <c r="H16" s="22">
-        <f>H13*$B$26</f>
+      <c r="H17" s="22">
+        <f>H13*$B$27</f>
         <v>2039.376666666667</v>
       </c>
-      <c r="J16" s="21">
-        <f>J13*$B$27</f>
+      <c r="J17" s="21">
+        <f>J13*$B$28</f>
         <v>9.4917309372444976</v>
       </c>
-      <c r="K16" s="21">
-        <f t="shared" ref="K16:L16" si="3">K13*$B$27</f>
+      <c r="K17" s="21">
+        <f t="shared" ref="K17:L17" si="3">K13*$B$28</f>
         <v>472.67702876573134</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L17" s="21">
         <f t="shared" si="3"/>
         <v>72.818646233663799</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21">
-        <f>N13*$B$27</f>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21">
+        <f>N13*$B$28</f>
         <v>2.1755483936252835</v>
       </c>
-      <c r="O16" s="21">
-        <f t="shared" ref="O16:P16" si="4">O13*$B$27</f>
+      <c r="O17" s="21">
+        <f t="shared" ref="O17:P17" si="4">O13*$B$28</f>
         <v>462.2874637032931</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P17" s="21">
         <f t="shared" si="4"/>
         <v>57.947593392760076</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <v>0.13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="18" t="s">
+    <row r="31" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="18" t="s">
+    <row r="32" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
-        <f>B30*2</f>
+      <c r="B32">
+        <f>B31*2</f>
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35">
-        <v>40</v>
-      </c>
-      <c r="D35">
-        <v>0.47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36">
-        <v>1653</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>7300</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <f>$B31*C35/3600/1000</f>
-        <v>7.3333333333333334E-7</v>
+        <v>1653</v>
       </c>
       <c r="D37">
-        <f>$B31*D35/3600/1000</f>
-        <v>8.6166666666666661E-9</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <f>$B32*C36/1000000000</f>
-        <v>1.3224E-7</v>
+        <f>$B32*C36/3600/1000</f>
+        <v>7.3333333333333334E-7</v>
       </c>
       <c r="D38">
-        <f>$B32*D36/1000000000</f>
-        <v>5.8400000000000004E-7</v>
+        <f>$B32*D36/3600/1000</f>
+        <v>8.6166666666666661E-9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f>$B33*C37/1000000000</f>
+        <v>1.3224E-7</v>
+      </c>
+      <c r="D39">
+        <f>$B33*D37/1000000000</f>
+        <v>5.8400000000000004E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="C39">
-        <f>C37+C38</f>
+      <c r="C40">
+        <f>C38+C39</f>
         <v>8.6557333333333336E-7</v>
       </c>
-      <c r="D39">
-        <f>D37+D38</f>
+      <c r="D40">
+        <f>D38+D39</f>
         <v>5.9261666666666676E-7</v>
       </c>
     </row>

--- a/results/throughput/throughput.xlsx
+++ b/results/throughput/throughput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Projects\boosted-pir\results\throughput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA3F00-E718-496E-9DB7-ECD9C9935393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFDCC28-43DD-406D-A8BB-4FD7C06CD4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,37 +738,37 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.765625" customWidth="1"/>
-    <col min="4" max="4" width="9.23046875" customWidth="1"/>
-    <col min="5" max="6" width="11.69140625" customWidth="1"/>
-    <col min="7" max="7" width="10.15234375" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.69140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
     </row>
-    <row r="2" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -914,14 +914,16 @@
         <v>766124.65189268754</v>
       </c>
       <c r="F6" s="19">
-        <v>1295000</v>
+        <f>22080000/26</f>
+        <v>849230.76923076925</v>
       </c>
       <c r="G6" s="19">
-        <v>1295000</v>
+        <f>22080000/26</f>
+        <v>849230.76923076925</v>
       </c>
       <c r="H6" s="20">
         <f>F6</f>
-        <v>1295000</v>
+        <v>849230.76923076925</v>
       </c>
       <c r="J6" s="2">
         <v>7500</v>
@@ -957,7 +959,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -972,7 +974,7 @@
       <c r="F7" s="13"/>
       <c r="H7" s="20">
         <f>H8-H6</f>
-        <v>1308461</v>
+        <v>1347692.3076923077</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
@@ -984,7 +986,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1002,14 +1004,15 @@
       </c>
       <c r="F8" s="20">
         <f>F6+F7</f>
-        <v>1295000</v>
+        <v>849230.76923076925</v>
       </c>
       <c r="G8" s="20">
         <f>G6+G7</f>
-        <v>1295000</v>
+        <v>849230.76923076925</v>
       </c>
       <c r="H8" s="19">
-        <v>2603461</v>
+        <f>57120000/26</f>
+        <v>2196923.076923077</v>
       </c>
       <c r="J8" s="11">
         <f>J6</f>
@@ -1036,7 +1039,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1051,13 +1054,16 @@
         <v>76375.201839780435</v>
       </c>
       <c r="F9" s="19">
-        <v>235769</v>
+        <f>1010000/26</f>
+        <v>38846.153846153844</v>
       </c>
       <c r="G9" s="19">
-        <v>377692</v>
+        <f>4680000/26</f>
+        <v>180000</v>
       </c>
       <c r="H9" s="19">
-        <v>1679230</v>
+        <f>12430000/26</f>
+        <v>478076.92307692306</v>
       </c>
       <c r="J9" s="2">
         <v>8600</v>
@@ -1087,7 +1093,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="E10" s="14" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1117,7 @@
       <c r="T10" s="15"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1121,15 +1127,15 @@
       </c>
       <c r="F11" s="13">
         <f>F8/24/7</f>
-        <v>7708.3333333333339</v>
+        <v>5054.9450549450548</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" ref="G11:H11" si="0">G8/24/7</f>
-        <v>7708.3333333333339</v>
+        <v>5054.9450549450548</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>15496.791666666668</v>
+        <v>13076.923076923078</v>
       </c>
       <c r="J11" s="6">
         <f>$C$6/J6</f>
@@ -1168,7 +1174,7 @@
         <v>666.97665698943274</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1178,15 +1184,15 @@
       </c>
       <c r="F12" s="13">
         <f>F9/24/7</f>
-        <v>1403.3869047619048</v>
+        <v>231.22710622710619</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" ref="G12:H12" si="1">G9/24/7</f>
-        <v>2248.1666666666665</v>
+        <v>1071.4285714285713</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>9995.4166666666679</v>
+        <v>2845.6959706959706</v>
       </c>
       <c r="J12" s="6">
         <f>$C9/J9</f>
@@ -1225,7 +1231,7 @@
         <v>1042.1124706941532</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1235,15 +1241,15 @@
       </c>
       <c r="F13" s="13">
         <f>F11+F12</f>
-        <v>9111.7202380952385</v>
+        <v>5286.1721611721614</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" ref="G13:H13" si="2">G11+G12</f>
-        <v>9956.5</v>
+        <v>6126.3736263736264</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="2"/>
-        <v>25492.208333333336</v>
+        <v>15922.61904761905</v>
       </c>
       <c r="J13" s="6">
         <f>J11+J12</f>
@@ -1282,17 +1288,17 @@
         <v>1709.089127683586</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5">
         <f>G13/E13</f>
-        <v>1.9853914426092656</v>
+        <v>1.2216391073197703</v>
       </c>
       <c r="H14" s="5">
         <f>H13/E13</f>
-        <v>5.0833136421646783</v>
+        <v>3.175074735205158</v>
       </c>
       <c r="K14" s="5">
         <f>K13/J13</f>
@@ -1319,14 +1325,14 @@
         <v>2.2746791826403308</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="5"/>
       <c r="H15" s="5">
         <f>G12/H12</f>
-        <v>0.22491975488765681</v>
+        <v>0.37650844730490746</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5">
@@ -1344,14 +1350,14 @@
         <v>4.3888888888888884</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="5"/>
       <c r="H16" s="5">
         <f>G13/H13</f>
-        <v>0.39057032132367236</v>
+        <v>0.38475916606757726</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5">
@@ -1366,7 +1372,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1376,15 +1382,15 @@
       </c>
       <c r="F17" s="22">
         <f>F13*$B$27</f>
-        <v>728.93761904761914</v>
+        <v>422.8937728937729</v>
       </c>
       <c r="G17" s="22">
         <f>G13*$B$27</f>
-        <v>796.52</v>
+        <v>490.1098901098901</v>
       </c>
       <c r="H17" s="22">
         <f>H13*$B$27</f>
-        <v>2039.376666666667</v>
+        <v>1273.8095238095241</v>
       </c>
       <c r="J17" s="21">
         <f>J13*$B$28</f>
@@ -1412,17 +1418,17 @@
         <v>57.947593392760076</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="18" t="s">
         <v>33</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="18" t="s">
         <v>34</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>8.6166666666666661E-9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>5.8400000000000004E-7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>32</v>
       </c>

--- a/results/throughput/throughput.xlsx
+++ b/results/throughput/throughput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Projects\boosted-pir\results\throughput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFDCC28-43DD-406D-A8BB-4FD7C06CD4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0E4826-92EE-400C-AED9-01DBBB3634C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{57C8EE75-4735-42A9-B6D7-A0C5DFA42BD0}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -738,7 +739,8 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -750,17 +752,17 @@
     <col min="5" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.1328125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.86328125" bestFit="1" customWidth="1"/>
@@ -780,17 +782,17 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="J1" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="N1" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="R1" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
@@ -860,18 +862,18 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="O4" s="2">
         <v>69</v>
       </c>
-      <c r="L4" s="2">
+      <c r="P4" s="2">
         <v>63</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -926,37 +928,37 @@
         <v>849230.76923076925</v>
       </c>
       <c r="J6" s="2">
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="K6" s="11">
         <f>J6</f>
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="L6" s="11">
         <f>J6</f>
+        <v>4200</v>
+      </c>
+      <c r="N6" s="2">
         <v>7500</v>
-      </c>
-      <c r="N6" s="2">
-        <v>25200</v>
       </c>
       <c r="O6" s="11">
         <f>N6</f>
-        <v>25200</v>
+        <v>7500</v>
       </c>
       <c r="P6" s="11">
         <f>N6</f>
+        <v>7500</v>
+      </c>
+      <c r="R6" s="2">
         <v>25200</v>
-      </c>
-      <c r="R6" s="2">
-        <v>730</v>
       </c>
       <c r="S6" s="11">
         <f>R6</f>
-        <v>730</v>
+        <v>25200</v>
       </c>
       <c r="T6" s="11">
         <f>R6</f>
-        <v>730</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
@@ -977,13 +979,13 @@
         <v>1347692.3076923077</v>
       </c>
       <c r="L7" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>3.2</v>
-      </c>
-      <c r="T7" s="2">
-        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
@@ -1016,27 +1018,27 @@
       </c>
       <c r="J8" s="11">
         <f>J6</f>
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="K8" s="11">
         <f>J8</f>
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="N8" s="11">
         <f>N6</f>
-        <v>25200</v>
+        <v>7500</v>
       </c>
       <c r="O8" s="11">
         <f>N8</f>
-        <v>25200</v>
+        <v>7500</v>
       </c>
       <c r="R8" s="11">
         <f>R6</f>
-        <v>730</v>
+        <v>25200</v>
       </c>
       <c r="S8" s="11">
         <f>R8</f>
-        <v>730</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
@@ -1066,31 +1068,31 @@
         <v>478076.92307692306</v>
       </c>
       <c r="J9" s="2">
+        <v>4900</v>
+      </c>
+      <c r="K9" s="2">
+        <v>220</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N9" s="2">
         <v>8600</v>
       </c>
-      <c r="K9" s="2">
+      <c r="O9" s="2">
         <v>228</v>
       </c>
-      <c r="L9" s="2">
+      <c r="P9" s="2">
         <v>7300</v>
       </c>
-      <c r="N9" s="2">
+      <c r="R9" s="2">
         <v>44500</v>
       </c>
-      <c r="O9" s="2">
+      <c r="S9" s="2">
         <v>232</v>
       </c>
-      <c r="P9" s="2">
+      <c r="T9" s="2">
         <v>19400</v>
-      </c>
-      <c r="R9" s="2">
-        <v>835</v>
-      </c>
-      <c r="S9" s="2">
-        <v>180</v>
-      </c>
-      <c r="T9" s="2">
-        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
@@ -1122,15 +1124,15 @@
         <v>8</v>
       </c>
       <c r="E11" s="13">
-        <f>E8/24/7</f>
+        <f t="shared" ref="E11:H12" si="0">E8/24/7</f>
         <v>4560.2657850755213</v>
       </c>
       <c r="F11" s="13">
-        <f>F8/24/7</f>
+        <f t="shared" si="0"/>
         <v>5054.9450549450548</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" ref="G11:H11" si="0">G8/24/7</f>
+        <f t="shared" si="0"/>
         <v>5054.9450549450548</v>
       </c>
       <c r="H11" s="13">
@@ -1139,39 +1141,39 @@
       </c>
       <c r="J11" s="6">
         <f>$C$6/J6</f>
-        <v>25.148846771160915</v>
+        <v>44.908654948501635</v>
       </c>
       <c r="K11" s="6">
         <f>$C$6/K6</f>
-        <v>25.148846771160915</v>
+        <v>44.908654948501635</v>
       </c>
       <c r="L11" s="6">
         <f>$C6/L6+$C7/L7</f>
-        <v>447.36687751892123</v>
+        <v>453.50674922052775</v>
       </c>
       <c r="N11" s="6">
         <f>$C$6/N6</f>
-        <v>7.4847758247502725</v>
+        <v>25.148846771160915</v>
       </c>
       <c r="O11" s="6">
         <f>$C$6/O6</f>
-        <v>7.4847758247502725</v>
+        <v>25.148846771160915</v>
       </c>
       <c r="P11" s="6">
         <f>$C6/P6+$C7/P7</f>
-        <v>403.31417965077554</v>
+        <v>447.36687751892123</v>
       </c>
       <c r="R11" s="6">
         <f>$C$6/R6</f>
-        <v>258.37856271740668</v>
+        <v>7.4847758247502725</v>
       </c>
       <c r="S11" s="6">
         <f>$C$6/S6</f>
-        <v>258.37856271740668</v>
+        <v>7.4847758247502725</v>
       </c>
       <c r="T11" s="6">
         <f>$C6/T6+$C7/T7</f>
-        <v>666.97665698943274</v>
+        <v>403.31417965077554</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
@@ -1179,56 +1181,56 @@
         <v>6</v>
       </c>
       <c r="E12" s="13">
-        <f>E9/24/7</f>
+        <f t="shared" si="0"/>
         <v>454.61429666535975</v>
       </c>
       <c r="F12" s="13">
-        <f>F9/24/7</f>
+        <f t="shared" si="0"/>
         <v>231.22710622710619</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" ref="G12:H12" si="1">G9/24/7</f>
+        <f t="shared" si="0"/>
         <v>1071.4285714285713</v>
       </c>
       <c r="H12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2845.6959706959706</v>
       </c>
       <c r="J12" s="6">
         <f>$C9/J9</f>
-        <v>47.864468130719828</v>
+        <v>84.007025698814388</v>
       </c>
       <c r="K12" s="6">
         <f>2*$C9/K9</f>
-        <v>3610.8282975806183</v>
+        <v>3742.1311447653679</v>
       </c>
       <c r="L12" s="6">
         <f>2*$C9/L9</f>
-        <v>112.77655504772342</v>
+        <v>235.21967195668029</v>
       </c>
       <c r="N12" s="6">
         <f>$C9/N9</f>
-        <v>9.2502118185211355</v>
+        <v>47.864468130719828</v>
       </c>
       <c r="O12" s="6">
         <f>2*$C9/O9</f>
-        <v>3548.5726372775043</v>
+        <v>3610.8282975806183</v>
       </c>
       <c r="P12" s="6">
         <f>2*$C9/P9</f>
-        <v>42.436538755071183</v>
+        <v>112.77655504772342</v>
       </c>
       <c r="R12" s="6">
         <f>$C9/R9</f>
-        <v>492.97536038825211</v>
+        <v>9.2502118185211355</v>
       </c>
       <c r="S12" s="6">
         <f>2*$C9/S9</f>
-        <v>4573.7158436021164</v>
+        <v>3548.5726372775043</v>
       </c>
       <c r="T12" s="6">
         <f>2*$C9/T9</f>
-        <v>1042.1124706941532</v>
+        <v>42.436538755071183</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
@@ -1244,48 +1246,48 @@
         <v>5286.1721611721614</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" ref="G13:H13" si="2">G11+G12</f>
+        <f>G11+G12</f>
         <v>6126.3736263736264</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" si="2"/>
+        <f>H11+H12</f>
         <v>15922.61904761905</v>
       </c>
       <c r="J13" s="6">
         <f>J11+J12</f>
-        <v>73.013314901880747</v>
+        <v>128.91568064731604</v>
       </c>
       <c r="K13" s="6">
         <f>K11+K12</f>
-        <v>3635.9771443517793</v>
+        <v>3787.0397997138698</v>
       </c>
       <c r="L13" s="6">
         <f>L11+L12</f>
-        <v>560.14343256664461</v>
+        <v>688.72642117720807</v>
       </c>
       <c r="N13" s="6">
         <f>N11+N12</f>
-        <v>16.73498764327141</v>
+        <v>73.013314901880747</v>
       </c>
       <c r="O13" s="6">
         <f>O11+O12</f>
-        <v>3556.0574131022545</v>
+        <v>3635.9771443517793</v>
       </c>
       <c r="P13" s="6">
         <f>P11+P12</f>
-        <v>445.75071840584673</v>
+        <v>560.14343256664461</v>
       </c>
       <c r="R13" s="6">
         <f>R11+R12</f>
-        <v>751.35392310565885</v>
+        <v>16.73498764327141</v>
       </c>
       <c r="S13" s="6">
         <f>S11+S12</f>
-        <v>4832.0944063195229</v>
+        <v>3556.0574131022545</v>
       </c>
       <c r="T13" s="6">
         <f>T11+T12</f>
-        <v>1709.089127683586</v>
+        <v>445.75071840584673</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
@@ -1302,27 +1304,27 @@
       </c>
       <c r="K14" s="5">
         <f>K13/J13</f>
-        <v>49.798822985067893</v>
+        <v>29.376099018352537</v>
       </c>
       <c r="L14" s="5">
         <f>L13/J13</f>
-        <v>7.6717984016942076</v>
+        <v>5.3424565399565846</v>
       </c>
       <c r="O14" s="5">
         <f>O13/N13</f>
-        <v>212.49238355619752</v>
+        <v>49.798822985067893</v>
       </c>
       <c r="P14" s="5">
         <f>P13/N13</f>
-        <v>26.635855843315696</v>
+        <v>7.6717984016942076</v>
       </c>
       <c r="S14" s="5">
         <f>S13/R13</f>
-        <v>6.4311827724895121</v>
+        <v>212.49238355619752</v>
       </c>
       <c r="T14" s="5">
         <f>T13/R13</f>
-        <v>2.2746791826403308</v>
+        <v>26.635855843315696</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
@@ -1337,17 +1339,17 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5">
         <f>K12/L12</f>
-        <v>32.017543859649123</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5">
         <f>O12/P12</f>
-        <v>83.620689655172413</v>
+        <v>32.017543859649123</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5">
         <f>S12/T12</f>
-        <v>4.3888888888888884</v>
+        <v>83.620689655172413</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
@@ -1362,17 +1364,20 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5">
         <f>K13/L13</f>
-        <v>6.4911537526938314</v>
+        <v>5.4986126323437086</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5">
         <f>O13/P13</f>
+        <v>6.4911537526938314</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5">
+        <f>S13/T13</f>
         <v>7.9776818438339303</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1394,41 +1399,67 @@
       </c>
       <c r="J17" s="21">
         <f>J13*$B$28</f>
-        <v>9.4917309372444976</v>
+        <v>16.759038484151084</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" ref="K17:L17" si="3">K13*$B$28</f>
-        <v>472.67702876573134</v>
+        <f>K13*$B$28</f>
+        <v>492.3151739628031</v>
       </c>
       <c r="L17" s="21">
-        <f t="shared" si="3"/>
-        <v>72.818646233663799</v>
-      </c>
-      <c r="M17" s="21"/>
+        <f>L13*$B$28</f>
+        <v>89.534434753037047</v>
+      </c>
       <c r="N17" s="21">
         <f>N13*$B$28</f>
+        <v>9.4917309372444976</v>
+      </c>
+      <c r="O17" s="21">
+        <f>O13*$B$28</f>
+        <v>472.67702876573134</v>
+      </c>
+      <c r="P17" s="21">
+        <f>P13*$B$28</f>
+        <v>72.818646233663799</v>
+      </c>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21">
+        <f>R13*$B$28</f>
         <v>2.1755483936252835</v>
       </c>
-      <c r="O17" s="21">
-        <f t="shared" ref="O17:P17" si="4">O13*$B$28</f>
+      <c r="S17" s="21">
+        <f>S13*$B$28</f>
         <v>462.2874637032931</v>
       </c>
-      <c r="P17" s="21">
-        <f t="shared" si="4"/>
+      <c r="T17" s="21">
+        <f>T13*$B$28</f>
         <v>57.947593392760076</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="F20">
+        <f>F13*24*30/1000000</f>
+        <v>3.8060439560439558</v>
+      </c>
+      <c r="G20">
+        <f>G13*24*30/1000000</f>
+        <v>4.4109890109890104</v>
+      </c>
+      <c r="H20">
+        <f>H13*24*30/1000000</f>
+        <v>11.464285714285715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
@@ -1436,7 +1467,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>22</v>
       </c>
@@ -1444,7 +1475,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="18" t="s">
         <v>33</v>
       </c>
@@ -1452,7 +1483,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="18" t="s">
         <v>34</v>
       </c>
